--- a/TC_CreateEmployees/Main.rvl.xlsx
+++ b/TC_CreateEmployees/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="181">
   <si>
     <t>Flow</t>
   </si>
@@ -528,6 +528,36 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>showMoreFields</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>toggleAdditionalFields</t>
+  </si>
+  <si>
+    <t>additionalFieldsButtonName</t>
+  </si>
+  <si>
+    <t>Show less fields</t>
+  </si>
+  <si>
+    <t>Show fewer fields</t>
+  </si>
+  <si>
+    <t>Invoice Details</t>
+  </si>
+  <si>
+    <t>Show more fields</t>
   </si>
 </sst>
 </file>
@@ -4479,7 +4509,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="658" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="H4" s="659"/>
     </row>
@@ -4510,32 +4540,60 @@
     </row>
     <row r="7">
       <c r="A7" s="668"/>
-      <c r="B7" s="669"/>
-      <c r="C7" s="670"/>
-      <c r="D7" s="671"/>
-      <c r="E7" s="672"/>
-      <c r="F7" s="673"/>
-      <c r="G7" s="674"/>
+      <c r="B7" s="669" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="670" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="671" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="672" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="673" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="674" t="s">
+        <v>179</v>
+      </c>
       <c r="H7" s="675"/>
     </row>
     <row r="8">
       <c r="A8" s="676"/>
-      <c r="B8" s="677"/>
+      <c r="B8" s="677" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="678"/>
       <c r="D8" s="679"/>
-      <c r="E8" s="680"/>
-      <c r="F8" s="681"/>
-      <c r="G8" s="682"/>
+      <c r="E8" s="680" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="681" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="682" t="s">
+        <v>173</v>
+      </c>
       <c r="H8" s="683"/>
     </row>
     <row r="9">
       <c r="A9" s="684"/>
-      <c r="B9" s="685"/>
+      <c r="B9" s="685" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="686"/>
       <c r="D9" s="687"/>
-      <c r="E9" s="688"/>
-      <c r="F9" s="689"/>
-      <c r="G9" s="690"/>
+      <c r="E9" s="688" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="689" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="690" t="s">
+        <v>180</v>
+      </c>
       <c r="H9" s="691"/>
     </row>
     <row r="10">

--- a/TC_CreateEmployees/Main.rvl.xlsx
+++ b/TC_CreateEmployees/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="188">
   <si>
     <t>Flow</t>
   </si>
@@ -558,6 +558,27 @@
   </si>
   <si>
     <t>Show more fields</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>SelectFastTab</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -578,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1092">
+  <borders count="1122">
     <border>
       <left/>
       <right/>
@@ -1677,11 +1698,41 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1092">
+  <cellXfs count="1122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -2774,6 +2825,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1089" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1090" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1091" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1092" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1093" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1094" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1095" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1096" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1097" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1098" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1099" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1100" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1101" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1102" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1103" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1104" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1105" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1106" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1107" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1108" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1109" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1110" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1111" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1112" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1113" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1114" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1115" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1116" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1117" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1118" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1119" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1120" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1121" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3053,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>7</v>
@@ -3075,10 +3156,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>13</v>
@@ -3097,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>17</v>
@@ -3387,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -3477,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
         <v>42</v>
@@ -3572,10 +3653,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
         <v>42</v>
@@ -3711,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="140" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="E53" s="141" t="s">
         <v>7</v>
@@ -3753,7 +3834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -3895,536 +3976,476 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="615"/>
+      <c r="A15" s="619" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="623"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="625" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="626" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="580" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="616"/>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="617"/>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="618"/>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="619" t="s">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="581" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="582" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="624" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="623"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="625" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="626" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="434" t="s">
-        <v>7</v>
-      </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="580" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>154</v>
-      </c>
+      <c r="A24" s="191"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="198"/>
     </row>
     <row r="25">
-      <c r="A25" s="581" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>7</v>
-      </c>
+      <c r="A25" s="199"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="206"/>
     </row>
     <row r="26">
-      <c r="A26" s="582" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="207"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="210"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="214"/>
     </row>
     <row r="27">
-      <c r="A27" s="624" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
+      <c r="A27" s="215"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="221"/>
+      <c r="H27" s="222"/>
     </row>
     <row r="28">
-      <c r="A28" s="191"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="198"/>
+      <c r="A28" s="223"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="230"/>
     </row>
     <row r="29">
-      <c r="A29" s="199"/>
-      <c r="B29" s="200"/>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="205"/>
-      <c r="H29" s="206"/>
+      <c r="A29" s="231"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="237"/>
+      <c r="H29" s="238"/>
     </row>
     <row r="30">
-      <c r="A30" s="207"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="214"/>
+      <c r="A30" s="239"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
     </row>
     <row r="31">
-      <c r="A31" s="215"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="221"/>
-      <c r="H31" s="222"/>
+      <c r="A31" s="247"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="254"/>
     </row>
     <row r="32">
-      <c r="A32" s="223"/>
-      <c r="B32" s="224"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="230"/>
+      <c r="A32" s="255"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="257"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262"/>
     </row>
     <row r="33">
-      <c r="A33" s="231"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="238"/>
+      <c r="A33" s="263"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
+      <c r="D33" s="266"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="268"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34">
-      <c r="A34" s="239"/>
-      <c r="B34" s="240"/>
-      <c r="C34" s="241"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="246"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="275"/>
+      <c r="F34" s="276"/>
+      <c r="G34" s="277"/>
+      <c r="H34" s="278"/>
     </row>
     <row r="35">
-      <c r="A35" s="247"/>
-      <c r="B35" s="248"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="251"/>
-      <c r="F35" s="252"/>
-      <c r="G35" s="253"/>
-      <c r="H35" s="254"/>
+      <c r="A35" s="279"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="282"/>
+      <c r="E35" s="283"/>
+      <c r="F35" s="284"/>
+      <c r="G35" s="285"/>
+      <c r="H35" s="286"/>
     </row>
     <row r="36">
-      <c r="A36" s="255"/>
-      <c r="B36" s="256"/>
-      <c r="C36" s="257"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="261"/>
-      <c r="H36" s="262"/>
+      <c r="A36" s="287"/>
+      <c r="B36" s="288"/>
+      <c r="C36" s="289"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="293"/>
+      <c r="H36" s="294"/>
     </row>
     <row r="37">
-      <c r="A37" s="263"/>
-      <c r="B37" s="264"/>
-      <c r="C37" s="265"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="269"/>
-      <c r="H37" s="270"/>
+      <c r="A37" s="295"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="297"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="301"/>
+      <c r="H37" s="302"/>
     </row>
     <row r="38">
-      <c r="A38" s="271"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="274"/>
-      <c r="E38" s="275"/>
-      <c r="F38" s="276"/>
-      <c r="G38" s="277"/>
-      <c r="H38" s="278"/>
+      <c r="A38" s="303"/>
+      <c r="B38" s="304"/>
+      <c r="C38" s="305"/>
+      <c r="D38" s="306"/>
+      <c r="E38" s="307"/>
+      <c r="F38" s="308"/>
+      <c r="G38" s="309"/>
+      <c r="H38" s="310"/>
     </row>
     <row r="39">
-      <c r="A39" s="279"/>
-      <c r="B39" s="280"/>
-      <c r="C39" s="281"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="283"/>
-      <c r="F39" s="284"/>
-      <c r="G39" s="285"/>
-      <c r="H39" s="286"/>
+      <c r="A39" s="311"/>
+      <c r="B39" s="312"/>
+      <c r="C39" s="313"/>
+      <c r="D39" s="314"/>
+      <c r="E39" s="315"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="318"/>
     </row>
     <row r="40">
-      <c r="A40" s="287"/>
-      <c r="B40" s="288"/>
-      <c r="C40" s="289"/>
-      <c r="D40" s="290"/>
-      <c r="E40" s="291"/>
-      <c r="F40" s="292"/>
-      <c r="G40" s="293"/>
-      <c r="H40" s="294"/>
+      <c r="A40" s="319"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="321"/>
+      <c r="D40" s="322"/>
+      <c r="E40" s="323"/>
+      <c r="F40" s="324"/>
+      <c r="G40" s="325"/>
+      <c r="H40" s="326"/>
     </row>
     <row r="41">
-      <c r="A41" s="295"/>
-      <c r="B41" s="296"/>
-      <c r="C41" s="297"/>
-      <c r="D41" s="298"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="300"/>
-      <c r="G41" s="301"/>
-      <c r="H41" s="302"/>
+      <c r="A41" s="327"/>
+      <c r="B41" s="328"/>
+      <c r="C41" s="329"/>
+      <c r="D41" s="330"/>
+      <c r="E41" s="331"/>
+      <c r="F41" s="332"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="334"/>
     </row>
     <row r="42">
-      <c r="A42" s="303"/>
-      <c r="B42" s="304"/>
-      <c r="C42" s="305"/>
-      <c r="D42" s="306"/>
-      <c r="E42" s="307"/>
-      <c r="F42" s="308"/>
-      <c r="G42" s="309"/>
-      <c r="H42" s="310"/>
+      <c r="A42" s="335"/>
+      <c r="B42" s="336"/>
+      <c r="C42" s="337"/>
+      <c r="D42" s="338"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="340"/>
+      <c r="G42" s="341"/>
+      <c r="H42" s="342"/>
     </row>
     <row r="43">
-      <c r="A43" s="311"/>
-      <c r="B43" s="312"/>
-      <c r="C43" s="313"/>
-      <c r="D43" s="314"/>
-      <c r="E43" s="315"/>
-      <c r="F43" s="316"/>
-      <c r="G43" s="317"/>
-      <c r="H43" s="318"/>
+      <c r="A43" s="343"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="345"/>
+      <c r="D43" s="346"/>
+      <c r="E43" s="347"/>
+      <c r="F43" s="348"/>
+      <c r="G43" s="349"/>
+      <c r="H43" s="350"/>
     </row>
     <row r="44">
-      <c r="A44" s="319"/>
-      <c r="B44" s="320"/>
-      <c r="C44" s="321"/>
-      <c r="D44" s="322"/>
-      <c r="E44" s="323"/>
-      <c r="F44" s="324"/>
-      <c r="G44" s="325"/>
-      <c r="H44" s="326"/>
+      <c r="A44" s="351"/>
+      <c r="B44" s="352"/>
+      <c r="C44" s="353"/>
+      <c r="D44" s="354"/>
+      <c r="E44" s="355"/>
+      <c r="F44" s="356"/>
+      <c r="G44" s="357"/>
+      <c r="H44" s="358"/>
     </row>
     <row r="45">
-      <c r="A45" s="327"/>
-      <c r="B45" s="328"/>
-      <c r="C45" s="329"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="331"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="334"/>
+      <c r="A45" s="359"/>
+      <c r="B45" s="360"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="362"/>
+      <c r="E45" s="363"/>
+      <c r="F45" s="364"/>
+      <c r="G45" s="365"/>
+      <c r="H45" s="366"/>
     </row>
     <row r="46">
-      <c r="A46" s="335"/>
-      <c r="B46" s="336"/>
-      <c r="C46" s="337"/>
-      <c r="D46" s="338"/>
-      <c r="E46" s="339"/>
-      <c r="F46" s="340"/>
-      <c r="G46" s="341"/>
-      <c r="H46" s="342"/>
+      <c r="A46" s="367"/>
+      <c r="B46" s="368"/>
+      <c r="C46" s="369"/>
+      <c r="D46" s="370"/>
+      <c r="E46" s="371"/>
+      <c r="F46" s="372"/>
+      <c r="G46" s="373"/>
+      <c r="H46" s="374"/>
     </row>
     <row r="47">
-      <c r="A47" s="343"/>
-      <c r="B47" s="344"/>
-      <c r="C47" s="345"/>
-      <c r="D47" s="346"/>
-      <c r="E47" s="347"/>
-      <c r="F47" s="348"/>
-      <c r="G47" s="349"/>
-      <c r="H47" s="350"/>
+      <c r="A47" s="375"/>
+      <c r="B47" s="376"/>
+      <c r="C47" s="377"/>
+      <c r="D47" s="378"/>
+      <c r="E47" s="379"/>
+      <c r="F47" s="380"/>
+      <c r="G47" s="381"/>
+      <c r="H47" s="382"/>
     </row>
     <row r="48">
-      <c r="A48" s="351"/>
-      <c r="B48" s="352"/>
-      <c r="C48" s="353"/>
-      <c r="D48" s="354"/>
-      <c r="E48" s="355"/>
-      <c r="F48" s="356"/>
-      <c r="G48" s="357"/>
-      <c r="H48" s="358"/>
+      <c r="A48" s="383"/>
+      <c r="B48" s="384"/>
+      <c r="C48" s="385"/>
+      <c r="D48" s="386"/>
+      <c r="E48" s="387"/>
+      <c r="F48" s="388"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="390"/>
     </row>
     <row r="49">
-      <c r="A49" s="359"/>
-      <c r="B49" s="360"/>
-      <c r="C49" s="361"/>
-      <c r="D49" s="362"/>
-      <c r="E49" s="363"/>
-      <c r="F49" s="364"/>
-      <c r="G49" s="365"/>
-      <c r="H49" s="366"/>
+      <c r="A49" s="391"/>
+      <c r="B49" s="392"/>
+      <c r="C49" s="393"/>
+      <c r="D49" s="394"/>
+      <c r="E49" s="395"/>
+      <c r="F49" s="396"/>
+      <c r="G49" s="397"/>
+      <c r="H49" s="398"/>
     </row>
     <row r="50">
-      <c r="A50" s="367"/>
-      <c r="B50" s="368"/>
-      <c r="C50" s="369"/>
-      <c r="D50" s="370"/>
-      <c r="E50" s="371"/>
-      <c r="F50" s="372"/>
-      <c r="G50" s="373"/>
-      <c r="H50" s="374"/>
+      <c r="A50" s="399"/>
+      <c r="B50" s="400"/>
+      <c r="C50" s="401"/>
+      <c r="D50" s="402"/>
+      <c r="E50" s="403"/>
+      <c r="F50" s="404"/>
+      <c r="G50" s="405"/>
+      <c r="H50" s="406"/>
     </row>
     <row r="51">
-      <c r="A51" s="375"/>
-      <c r="B51" s="376"/>
-      <c r="C51" s="377"/>
-      <c r="D51" s="378"/>
-      <c r="E51" s="379"/>
-      <c r="F51" s="380"/>
-      <c r="G51" s="381"/>
-      <c r="H51" s="382"/>
+      <c r="A51" s="407"/>
+      <c r="B51" s="408"/>
+      <c r="C51" s="409"/>
+      <c r="D51" s="410"/>
+      <c r="E51" s="411"/>
+      <c r="F51" s="412"/>
+      <c r="G51" s="413"/>
+      <c r="H51" s="414"/>
     </row>
     <row r="52">
-      <c r="A52" s="383"/>
-      <c r="B52" s="384"/>
-      <c r="C52" s="385"/>
-      <c r="D52" s="386"/>
-      <c r="E52" s="387"/>
-      <c r="F52" s="388"/>
-      <c r="G52" s="389"/>
-      <c r="H52" s="390"/>
+      <c r="A52" s="415"/>
+      <c r="B52" s="416"/>
+      <c r="C52" s="417"/>
+      <c r="D52" s="418"/>
+      <c r="E52" s="419"/>
+      <c r="F52" s="420"/>
+      <c r="G52" s="421"/>
+      <c r="H52" s="422"/>
     </row>
     <row r="53">
-      <c r="A53" s="391"/>
-      <c r="B53" s="392"/>
-      <c r="C53" s="393"/>
-      <c r="D53" s="394"/>
-      <c r="E53" s="395"/>
-      <c r="F53" s="396"/>
-      <c r="G53" s="397"/>
-      <c r="H53" s="398"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="399"/>
-      <c r="B54" s="400"/>
-      <c r="C54" s="401"/>
-      <c r="D54" s="402"/>
-      <c r="E54" s="403"/>
-      <c r="F54" s="404"/>
-      <c r="G54" s="405"/>
-      <c r="H54" s="406"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="407"/>
-      <c r="B55" s="408"/>
-      <c r="C55" s="409"/>
-      <c r="D55" s="410"/>
-      <c r="E55" s="411"/>
-      <c r="F55" s="412"/>
-      <c r="G55" s="413"/>
-      <c r="H55" s="414"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="415"/>
-      <c r="B56" s="416"/>
-      <c r="C56" s="417"/>
-      <c r="D56" s="418"/>
-      <c r="E56" s="419"/>
-      <c r="F56" s="420"/>
-      <c r="G56" s="421"/>
-      <c r="H56" s="422"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="423"/>
-      <c r="B57" s="424"/>
-      <c r="C57" s="425"/>
-      <c r="D57" s="426"/>
-      <c r="E57" s="427"/>
-      <c r="F57" s="428"/>
-      <c r="G57" s="429"/>
-      <c r="H57" s="430"/>
+      <c r="A53" s="423"/>
+      <c r="B53" s="424"/>
+      <c r="C53" s="425"/>
+      <c r="D53" s="426"/>
+      <c r="E53" s="427"/>
+      <c r="F53" s="428"/>
+      <c r="G53" s="429"/>
+      <c r="H53" s="430"/>
     </row>
   </sheetData>
 </worksheet>
